--- a/escalacoes.xlsx
+++ b/escalacoes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="326">
   <si>
     <t>escalacao</t>
   </si>
@@ -976,6 +976,24 @@
   </si>
   <si>
     <t>Kaio Jorge, Kaio Jorge, Pênalti, Bolasie</t>
+  </si>
+  <si>
+    <t>8, 61</t>
+  </si>
+  <si>
+    <t>46, Wanderson, Keny Arroyo</t>
+  </si>
+  <si>
+    <t>61, Christian, Matheus Henrique</t>
+  </si>
+  <si>
+    <t>68, Lucas Romero, Marquinhos</t>
+  </si>
+  <si>
+    <t>81, Kaiki, Bolasie</t>
+  </si>
+  <si>
+    <t>81, Jonathan Jesus, João Marcelo</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="E23" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I29" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,6 +2786,32 @@
       </c>
       <c r="J47" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" t="s">
+        <v>321</v>
+      </c>
+      <c r="H48" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" t="s">
+        <v>323</v>
+      </c>
+      <c r="J48" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
